--- a/yhoo_stats/field builder.xlsx
+++ b/yhoo_stats/field builder.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/539ef1ee8c89461a/scrapy/scrapy_project/yhoo_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224031EB-CDAF-4FC3-9E3A-52766656F01D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{224031EB-CDAF-4FC3-9E3A-52766656F01D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20E58826-67C8-42D2-822A-9863376DB8D4}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1485" windowWidth="22275" windowHeight="11580" xr2:uid="{D6351A4B-974E-455B-BC47-6EB45B8F4F16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6351A4B-974E-455B-BC47-6EB45B8F4F16}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="scrapy" sheetId="1" r:id="rId1"/>
+    <sheet name="selenium" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t xml:space="preserve"> response.xpath('//td[@class</t>
   </si>
@@ -187,6 +188,63 @@
   </si>
   <si>
     <t>fcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driver.find_element_by_xpath('//*[@id</t>
+  </si>
+  <si>
+    <t>quote-header-info]/div[2]/div[1]/div[1]/h1').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[2]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[3]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[4]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[5]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[6]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[7]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[8]/td[2]').text</t>
+  </si>
+  <si>
+    <t>Col1-0-KeyStatistics-Proxy]/section/div[3]/div[1]/div[2]/div/div[1]/div[1]/table/tbody/tr[9]/td[2]').text</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>trail_pe</t>
+  </si>
+  <si>
+    <t>fwd_pe</t>
+  </si>
+  <si>
+    <t>peg</t>
+  </si>
+  <si>
+    <t>px2sales</t>
+  </si>
+  <si>
+    <t>px2book</t>
+  </si>
+  <si>
+    <t>ev2rev</t>
+  </si>
+  <si>
+    <t>ev2ebitda</t>
   </si>
 </sst>
 </file>
@@ -541,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E8136C-DA5C-402E-B8FB-33E2C2F14B2A}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,4 +1095,182 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F998C54-67A8-4A68-9446-8CD391D7D133}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("stats_dict['",A1,"'] = ",A1)</f>
+        <v>stats_dict['tk'] = tk</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B9" si="0">_xlfn.CONCAT("stats_dict['",A2,"'] = ",A2)</f>
+        <v>stats_dict['ev'] = ev</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['trail_pe'] = trail_pe</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['fwd_pe'] = fwd_pe</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['peg'] = peg</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['px2sales'] = px2sales</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['px2book'] = px2book</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['ev2rev'] = ev2rev</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>stats_dict['ev2ebitda'] = ev2ebitda</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>